--- a/servicio/store/check/CHECKLIST_ITP_10000574056_72102873024_SNPC_CC1322_10000574056_72102873024_LAMPA.xlsx
+++ b/servicio/store/check/CHECKLIST_ITP_10000574056_72102873024_SNPC_CC1322_10000574056_72102873024_LAMPA.xlsx
@@ -731,7 +731,11 @@
           <t>Ott</t>
         </is>
       </c>
-      <c r="B3" s="20" t="n"/>
+      <c r="B3" s="20" t="inlineStr">
+        <is>
+          <t>10000574056</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="17">
       <c r="A4" s="21" t="inlineStr">
@@ -739,7 +743,11 @@
           <t>Código de Servicio</t>
         </is>
       </c>
-      <c r="B4" s="22" t="n"/>
+      <c r="B4" s="22" t="inlineStr">
+        <is>
+          <t>72102873024</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="17">
       <c r="A5" s="23" t="inlineStr">
@@ -806,7 +814,11 @@
           <t xml:space="preserve">Hostname </t>
         </is>
       </c>
-      <c r="B11" s="27" t="n"/>
+      <c r="B11" s="27" t="inlineStr">
+        <is>
+          <t>SNPC_CC1322_10000574056_72102873024_LAMPA</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" s="17">
       <c r="A12" s="21" t="inlineStr">
@@ -870,7 +882,11 @@
           <t>Modelo</t>
         </is>
       </c>
-      <c r="B17" s="27" t="n"/>
+      <c r="B17" s="27" t="inlineStr">
+        <is>
+          <t>ISR4221</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="13.5" customHeight="1" s="17">
       <c r="A18" s="21" t="inlineStr">
@@ -890,7 +906,11 @@
           <t>Comunidad</t>
         </is>
       </c>
-      <c r="B19" s="29" t="n"/>
+      <c r="B19" s="29" t="inlineStr">
+        <is>
+          <t>JUNJI123</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="13.5" customHeight="1" s="17">
       <c r="A20" s="28" t="inlineStr">
@@ -922,7 +942,11 @@
           <t>IP Monitoreo</t>
         </is>
       </c>
-      <c r="B22" s="27" t="n"/>
+      <c r="B22" s="27" t="inlineStr">
+        <is>
+          <t>10.0.0.1</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="13.5" customHeight="1" s="17">
       <c r="A23" s="21" t="inlineStr">
@@ -930,7 +954,11 @@
           <t>Interfaces</t>
         </is>
       </c>
-      <c r="B23" s="27" t="n"/>
+      <c r="B23" s="27" t="inlineStr">
+        <is>
+          <t>interface GigabitEthernet0/0/0</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="13.5" customHeight="1" s="17">
       <c r="A24" s="21" t="n"/>
@@ -1856,7 +1884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D113" activeCellId="0" sqref="D113"/>
@@ -1881,112 +1909,1016 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="17"/>
-    <row r="5" ht="12.75" customHeight="1" s="17"/>
-    <row r="6" ht="12.75" customHeight="1" s="17"/>
-    <row r="7" ht="12.75" customHeight="1" s="17"/>
-    <row r="8" ht="12.75" customHeight="1" s="17"/>
-    <row r="9" ht="12.75" customHeight="1" s="17"/>
-    <row r="10" ht="12.75" customHeight="1" s="17"/>
-    <row r="11" ht="12.75" customHeight="1" s="17"/>
-    <row r="12" ht="12.75" customHeight="1" s="17"/>
-    <row r="13" ht="12.75" customHeight="1" s="17"/>
-    <row r="14" ht="12.75" customHeight="1" s="17"/>
-    <row r="15" ht="12.75" customHeight="1" s="17"/>
-    <row r="16" ht="12.75" customHeight="1" s="17"/>
-    <row r="17" ht="12.75" customHeight="1" s="17"/>
-    <row r="18" ht="12.75" customHeight="1" s="17"/>
-    <row r="19" ht="12.75" customHeight="1" s="17"/>
-    <row r="20" ht="12.75" customHeight="1" s="17"/>
-    <row r="21" ht="12.75" customHeight="1" s="17"/>
-    <row r="22" ht="12.75" customHeight="1" s="17"/>
-    <row r="23" ht="12.75" customHeight="1" s="17"/>
-    <row r="24" ht="12.75" customHeight="1" s="17"/>
-    <row r="25" ht="12.75" customHeight="1" s="17"/>
-    <row r="26" ht="12.75" customHeight="1" s="17"/>
-    <row r="27" ht="12.75" customHeight="1" s="17"/>
-    <row r="28" ht="12.75" customHeight="1" s="17"/>
-    <row r="29" ht="12.75" customHeight="1" s="17"/>
-    <row r="30" ht="12.75" customHeight="1" s="17"/>
-    <row r="31" ht="12.75" customHeight="1" s="17"/>
-    <row r="32" ht="12.75" customHeight="1" s="17"/>
-    <row r="33" ht="12.75" customHeight="1" s="17"/>
-    <row r="34" ht="12.75" customHeight="1" s="17"/>
-    <row r="35" ht="12.75" customHeight="1" s="17"/>
-    <row r="36" ht="12.75" customHeight="1" s="17"/>
-    <row r="37" ht="12.75" customHeight="1" s="17"/>
-    <row r="38" ht="12.75" customHeight="1" s="17"/>
-    <row r="39" ht="12.75" customHeight="1" s="17"/>
-    <row r="40" ht="12.75" customHeight="1" s="17"/>
-    <row r="41" ht="12.75" customHeight="1" s="17"/>
-    <row r="42" ht="12.75" customHeight="1" s="17"/>
-    <row r="43" ht="12.75" customHeight="1" s="17"/>
-    <row r="44" ht="12.75" customHeight="1" s="17"/>
-    <row r="45" ht="12.75" customHeight="1" s="17"/>
-    <row r="46" ht="12.75" customHeight="1" s="17"/>
-    <row r="47" ht="12.75" customHeight="1" s="17"/>
-    <row r="48" ht="12.75" customHeight="1" s="17"/>
-    <row r="49" ht="12.75" customHeight="1" s="17"/>
-    <row r="50" ht="12.75" customHeight="1" s="17"/>
-    <row r="51" ht="12.75" customHeight="1" s="17"/>
-    <row r="52" ht="12.75" customHeight="1" s="17"/>
-    <row r="53" ht="12.75" customHeight="1" s="17"/>
-    <row r="54" ht="12.75" customHeight="1" s="17"/>
-    <row r="55" ht="12.75" customHeight="1" s="17"/>
-    <row r="56" ht="12.75" customHeight="1" s="17"/>
-    <row r="57" ht="12.75" customHeight="1" s="17"/>
-    <row r="58" ht="12.75" customHeight="1" s="17"/>
-    <row r="59" ht="12.75" customHeight="1" s="17"/>
-    <row r="60" ht="12.75" customHeight="1" s="17"/>
-    <row r="61" ht="12.75" customHeight="1" s="17"/>
-    <row r="62" ht="12.75" customHeight="1" s="17"/>
-    <row r="63" ht="12.75" customHeight="1" s="17"/>
-    <row r="64" ht="12.75" customHeight="1" s="17"/>
-    <row r="65" ht="12.75" customHeight="1" s="17"/>
-    <row r="66" ht="12.75" customHeight="1" s="17"/>
-    <row r="67" ht="12.75" customHeight="1" s="17"/>
-    <row r="68" ht="12.75" customHeight="1" s="17"/>
-    <row r="69" ht="12.75" customHeight="1" s="17"/>
-    <row r="70" ht="12.75" customHeight="1" s="17"/>
-    <row r="71" ht="12.75" customHeight="1" s="17"/>
-    <row r="72" ht="12.75" customHeight="1" s="17"/>
-    <row r="73" ht="12.75" customHeight="1" s="17"/>
-    <row r="74" ht="12.75" customHeight="1" s="17"/>
-    <row r="75" ht="12.75" customHeight="1" s="17"/>
-    <row r="76" ht="12.75" customHeight="1" s="17"/>
-    <row r="77" ht="12.75" customHeight="1" s="17"/>
+    <row r="4" ht="12.75" customHeight="1" s="17">
+      <c r="A4" s="16" t="inlineStr">
+        <is>
+          <t>Building configuration...</t>
+        </is>
+      </c>
+      <c r="I4" s="16" t="inlineStr">
+        <is>
+          <t>Cisco IOS XE Software, Version 16.05.01b</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="17">
+      <c r="A5" s="16" t="inlineStr"/>
+      <c r="I5" s="16" t="inlineStr">
+        <is>
+          <t>Cisco IOS Software [Everest], ISR Software (X86_64_LINUX_IOSD-UNIVERSALK9_IAS-M), Version 16.5.1b, RELEASE SOFTWARE (fc1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="17">
+      <c r="A6" s="16" t="inlineStr"/>
+      <c r="I6" s="16" t="inlineStr">
+        <is>
+          <t>Technical Support: http://www.cisco.com/techsupport</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="17">
+      <c r="A7" s="16" t="inlineStr">
+        <is>
+          <t>Current configuration : 4201 bytes</t>
+        </is>
+      </c>
+      <c r="I7" s="16" t="inlineStr">
+        <is>
+          <t>Copyright (c) 1986-2017 by Cisco Systems, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="17">
+      <c r="A8" s="16" t="inlineStr">
+        <is>
+          <t>version 16.5</t>
+        </is>
+      </c>
+      <c r="I8" s="16" t="inlineStr">
+        <is>
+          <t>Compiled Tue 11-Apr-17 16:39 by mcpre</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="17">
+      <c r="A9" s="16" t="inlineStr">
+        <is>
+          <t>service timestamps debug datetime msec</t>
+        </is>
+      </c>
+      <c r="I9" s="16" t="inlineStr"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="17">
+      <c r="A10" s="16" t="inlineStr">
+        <is>
+          <t>service timestamps log datetime msec</t>
+        </is>
+      </c>
+      <c r="I10" s="16" t="inlineStr"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="17">
+      <c r="A11" s="16" t="inlineStr">
+        <is>
+          <t>platform qfp utilization monitor load 80</t>
+        </is>
+      </c>
+      <c r="I11" s="16" t="inlineStr">
+        <is>
+          <t>Cisco IOS-XE software, Copyright (c) 2005-2017 by cisco Systems, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="17">
+      <c r="A12" s="16" t="inlineStr">
+        <is>
+          <t>no platform punt-keepalive disable-kernel-core</t>
+        </is>
+      </c>
+      <c r="I12" s="16" t="inlineStr">
+        <is>
+          <t>All rights reserved.  Certain components of Cisco IOS-XE software are</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="17">
+      <c r="A13" s="16" t="inlineStr">
+        <is>
+          <t>hostname SNPC_CC1322_10000574056_72102873024_LAMPA</t>
+        </is>
+      </c>
+      <c r="I13" s="16" t="inlineStr">
+        <is>
+          <t>licensed under the GNU General Public License ("GPL") Version 2.0.  The</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="17">
+      <c r="A14" s="16" t="inlineStr">
+        <is>
+          <t>boot-start-marker</t>
+        </is>
+      </c>
+      <c r="I14" s="16" t="inlineStr">
+        <is>
+          <t>software code licensed under GPL Version 2.0 is free software that comes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" s="17">
+      <c r="A15" s="16" t="inlineStr">
+        <is>
+          <t>boot-end-marker</t>
+        </is>
+      </c>
+      <c r="I15" s="16" t="inlineStr">
+        <is>
+          <t>with ABSOLUTELY NO WARRANTY.  You can redistribute and/or modify such</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1" s="17">
+      <c r="A16" s="16" t="inlineStr">
+        <is>
+          <t>enable secret 5 $1$sO.N$.osakPIYnTE8xxqgaF5sx.</t>
+        </is>
+      </c>
+      <c r="I16" s="16" t="inlineStr">
+        <is>
+          <t>GPL code under the terms of GPL Version 2.0.  For more details, see the</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1" s="17">
+      <c r="A17" s="16" t="inlineStr">
+        <is>
+          <t>no aaa new-model</t>
+        </is>
+      </c>
+      <c r="I17" s="16" t="inlineStr">
+        <is>
+          <t>documentation or "License Notice" file accompanying the IOS-XE software,</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1" s="17">
+      <c r="A18" s="16" t="inlineStr"/>
+      <c r="I18" s="16" t="inlineStr">
+        <is>
+          <t>or the applicable URL provided on the flyer accompanying the IOS-XE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1" s="17">
+      <c r="A19" s="16" t="inlineStr">
+        <is>
+          <t>ip domain name dominio.com</t>
+        </is>
+      </c>
+      <c r="I19" s="16" t="inlineStr">
+        <is>
+          <t>software.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1" s="17">
+      <c r="A20" s="16" t="inlineStr">
+        <is>
+          <t>subscriber templating</t>
+        </is>
+      </c>
+      <c r="I20" s="16" t="inlineStr"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1" s="17">
+      <c r="A21" s="16" t="inlineStr">
+        <is>
+          <t>multilink bundle-name authenticated</t>
+        </is>
+      </c>
+      <c r="I21" s="16" t="inlineStr"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1" s="17">
+      <c r="A22" s="16" t="inlineStr">
+        <is>
+          <t>license udi pid ISR4221/K9 sn FJC2205D0HJ</t>
+        </is>
+      </c>
+      <c r="I22" s="16" t="inlineStr">
+        <is>
+          <t>ROM: IOS-XE ROMMON</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1" s="17">
+      <c r="A23" s="16" t="inlineStr">
+        <is>
+          <t>diagnostic bootup level minimal</t>
+        </is>
+      </c>
+      <c r="I23" s="16" t="inlineStr"/>
+    </row>
+    <row r="24" ht="12.75" customHeight="1" s="17">
+      <c r="A24" s="16" t="inlineStr">
+        <is>
+          <t>spanning-tree extend system-id</t>
+        </is>
+      </c>
+      <c r="I24" s="16" t="inlineStr">
+        <is>
+          <t>SNPC_CC1322_10000574056_72102873024_LAMPA uptime is 2 hours, 16 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="1" s="17">
+      <c r="A25" s="16" t="inlineStr">
+        <is>
+          <t>username franco privilege 15 password 0 cisco</t>
+        </is>
+      </c>
+      <c r="I25" s="16" t="inlineStr">
+        <is>
+          <t>Uptime for this control processor is 2 hours, 20 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="12.75" customHeight="1" s="17">
+      <c r="A26" s="16" t="inlineStr">
+        <is>
+          <t>redundancy</t>
+        </is>
+      </c>
+      <c r="I26" s="16" t="inlineStr">
+        <is>
+          <t>System returned to ROM by PowerOn</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="12.75" customHeight="1" s="17">
+      <c r="A27" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> mode none</t>
+        </is>
+      </c>
+      <c r="I27" s="16" t="inlineStr">
+        <is>
+          <t>System image file is "bootflash:isr4200-universalk9_ias.16.05.01b.SPA.bin"</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="12.75" customHeight="1" s="17">
+      <c r="A28" s="16" t="inlineStr">
+        <is>
+          <t>no cdp run</t>
+        </is>
+      </c>
+      <c r="I28" s="16" t="inlineStr">
+        <is>
+          <t>Last reload reason: PowerOn</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="12.75" customHeight="1" s="17">
+      <c r="A29" s="16" t="inlineStr">
+        <is>
+          <t>interface Loopback0</t>
+        </is>
+      </c>
+      <c r="I29" s="16" t="inlineStr"/>
+    </row>
+    <row r="30" ht="12.75" customHeight="1" s="17">
+      <c r="A30" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> description ### ADMINISTRACION ###</t>
+        </is>
+      </c>
+      <c r="I30" s="16" t="inlineStr"/>
+    </row>
+    <row r="31" ht="12.75" customHeight="1" s="17">
+      <c r="A31" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ip address 10.175.14.248 255.255.255.255</t>
+        </is>
+      </c>
+      <c r="I31" s="16" t="inlineStr"/>
+    </row>
+    <row r="32" ht="12.75" customHeight="1" s="17">
+      <c r="A32" s="16" t="inlineStr">
+        <is>
+          <t>interface GigabitEthernet0/0/0</t>
+        </is>
+      </c>
+      <c r="I32" s="16" t="inlineStr">
+        <is>
+          <t>This product contains cryptographic features and is subject to United</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="12.75" customHeight="1" s="17">
+      <c r="A33" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> description *** WAN ENTEL OTT:72102873024 C/S:10000574056 ***</t>
+        </is>
+      </c>
+      <c r="I33" s="16" t="inlineStr">
+        <is>
+          <t>States and local country laws governing import, export, transfer and</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="12.75" customHeight="1" s="17">
+      <c r="A34" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ip address 10.0.0.1 255.255.255.252</t>
+        </is>
+      </c>
+      <c r="I34" s="16" t="inlineStr">
+        <is>
+          <t>use. Delivery of Cisco cryptographic products does not imply</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="12.75" customHeight="1" s="17">
+      <c r="A35" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> negotiation auto</t>
+        </is>
+      </c>
+      <c r="I35" s="16" t="inlineStr">
+        <is>
+          <t>third-party authority to import, export, distribute or use encryption.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="12.75" customHeight="1" s="17">
+      <c r="A36" s="16" t="inlineStr">
+        <is>
+          <t>interface GigabitEthernet0/0/1</t>
+        </is>
+      </c>
+      <c r="I36" s="16" t="inlineStr">
+        <is>
+          <t>Importers, exporters, distributors and users are responsible for</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="12.75" customHeight="1" s="17">
+      <c r="A37" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> no ip address</t>
+        </is>
+      </c>
+      <c r="I37" s="16" t="inlineStr">
+        <is>
+          <t>compliance with U.S. and local country laws. By using this product you</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="12.75" customHeight="1" s="17">
+      <c r="A38" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> negotiation auto</t>
+        </is>
+      </c>
+      <c r="I38" s="16" t="inlineStr">
+        <is>
+          <t>agree to comply with applicable laws and regulations. If you are unable</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="12.75" customHeight="1" s="17">
+      <c r="A39" s="16" t="inlineStr">
+        <is>
+          <t>ip forward-protocol nd</t>
+        </is>
+      </c>
+      <c r="I39" s="16" t="inlineStr">
+        <is>
+          <t>to comply with U.S. and local laws, return this product immediately.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="12.75" customHeight="1" s="17">
+      <c r="A40" s="16" t="inlineStr">
+        <is>
+          <t>no ip http server</t>
+        </is>
+      </c>
+      <c r="I40" s="16" t="inlineStr"/>
+    </row>
+    <row r="41" ht="12.75" customHeight="1" s="17">
+      <c r="A41" s="16" t="inlineStr">
+        <is>
+          <t>ip http secure-server</t>
+        </is>
+      </c>
+      <c r="I41" s="16" t="inlineStr">
+        <is>
+          <t>A summary of U.S. laws governing Cisco cryptographic products may be found at:</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="12.75" customHeight="1" s="17">
+      <c r="A42" s="16" t="inlineStr">
+        <is>
+          <t>ip ssh server algorithm encryption aes128-ctr aes192-ctr aes256-ctr</t>
+        </is>
+      </c>
+      <c r="I42" s="16" t="inlineStr">
+        <is>
+          <t>http://www.cisco.com/wwl/export/crypto/tool/stqrg.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="12.75" customHeight="1" s="17">
+      <c r="A43" s="16" t="inlineStr">
+        <is>
+          <t>ip ssh client algorithm encryption aes128-ctr aes192-ctr aes256-ctr</t>
+        </is>
+      </c>
+      <c r="I43" s="16" t="inlineStr"/>
+    </row>
+    <row r="44" ht="12.75" customHeight="1" s="17">
+      <c r="A44" s="16" t="inlineStr">
+        <is>
+          <t>snmp-server community JUNJI123 RO</t>
+        </is>
+      </c>
+      <c r="I44" s="16" t="inlineStr">
+        <is>
+          <t>If you require further assistance please contact us by sending email to</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="12.75" customHeight="1" s="17">
+      <c r="A45" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">snmp-server location CALLE SERRANO 73B </t>
+        </is>
+      </c>
+      <c r="I45" s="16" t="inlineStr">
+        <is>
+          <t>export@cisco.com.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="12.75" customHeight="1" s="17">
+      <c r="A46" s="16" t="inlineStr">
+        <is>
+          <t>snmp-server enable traps snmp authentication</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="inlineStr"/>
+    </row>
+    <row r="47" ht="12.75" customHeight="1" s="17">
+      <c r="A47" s="16" t="inlineStr">
+        <is>
+          <t>snmp ifmib ifindex persist</t>
+        </is>
+      </c>
+      <c r="I47" s="16" t="inlineStr"/>
+    </row>
+    <row r="48" ht="12.75" customHeight="1" s="17">
+      <c r="A48" s="16" t="inlineStr">
+        <is>
+          <t>control-plane</t>
+        </is>
+      </c>
+      <c r="I48" s="16" t="inlineStr"/>
+    </row>
+    <row r="49" ht="12.75" customHeight="1" s="17">
+      <c r="A49" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">banner exec ^CCCCCCCCCCC    </t>
+        </is>
+      </c>
+      <c r="I49" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suite License Information for Module:'esg' </t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="12.75" customHeight="1" s="17">
+      <c r="A50" s="16" t="inlineStr"/>
+      <c r="I50" s="16" t="inlineStr"/>
+    </row>
+    <row r="51" ht="12.75" customHeight="1" s="17">
+      <c r="A51" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               @@@@@    @@@</t>
+        </is>
+      </c>
+      <c r="I51" s="16" t="inlineStr">
+        <is>
+          <t>--------------------------------------------------------------------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="12.75" customHeight="1" s="17">
+      <c r="A52" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">             @@@@@@@@@   @@@                       @@          @@</t>
+        </is>
+      </c>
+      <c r="I52" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suite                 Suite Current         Type           Suite Next reboot     </t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="12.75" customHeight="1" s="17">
+      <c r="A53" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            @@@    @@@@   @@@      @@@@@  @@@@@@@ @@@@  @@@@@  @@</t>
+        </is>
+      </c>
+      <c r="I53" s="16" t="inlineStr">
+        <is>
+          <t>--------------------------------------------------------------------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="12.75" customHeight="1" s="17">
+      <c r="A54" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">           @@@@     @@@   @@@     @@@  @@ @@@  @@  @@  @@   @@ @@</t>
+        </is>
+      </c>
+      <c r="I54" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FoundationSuiteK9     None                  None           None                  </t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="12.75" customHeight="1" s="17">
+      <c r="A55" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">           @@@@@@@@@@@@   @@@     @@@@@@@ @@@  @@  @@  @@@@@@@ @@</t>
+        </is>
+      </c>
+      <c r="I55" s="16" t="inlineStr">
+        <is>
+          <t>securityk9</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="12.75" customHeight="1" s="17">
+      <c r="A56" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">           @@@@           @@@     @@@     @@@  @@  @@  @@      @@</t>
+        </is>
+      </c>
+      <c r="I56" s="16" t="inlineStr">
+        <is>
+          <t>appxk9</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="12.75" customHeight="1" s="17">
+      <c r="A57" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            @@@@    @@@   @@@      @@@@@@ @@@  @@  @@@  @@@@@@ @@@@</t>
+        </is>
+      </c>
+      <c r="I57" s="16" t="inlineStr"/>
+    </row>
+    <row r="58" ht="12.75" customHeight="1" s="17">
+      <c r="A58" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">             @@@@@@@@@   @@@</t>
+        </is>
+      </c>
+      <c r="I58" s="16" t="inlineStr"/>
+    </row>
+    <row r="59" ht="12.75" customHeight="1" s="17">
+      <c r="A59" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               @@@@@    @@@</t>
+        </is>
+      </c>
+      <c r="I59" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Technology Package License Information: </t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="12.75" customHeight="1" s="17">
+      <c r="A60" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                   ||         ||</t>
+        </is>
+      </c>
+      <c r="I60" s="16" t="inlineStr"/>
+    </row>
+    <row r="61" ht="12.75" customHeight="1" s="17">
+      <c r="A61" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                   ||         ||</t>
+        </is>
+      </c>
+      <c r="I61" s="16" t="inlineStr">
+        <is>
+          <t>-----------------------------------------------------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="12.75" customHeight="1" s="17">
+      <c r="A62" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                  ||||       ||||</t>
+        </is>
+      </c>
+      <c r="I62" s="16" t="inlineStr">
+        <is>
+          <t>Technology    Technology-package           Technology-package</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="12.75" customHeight="1" s="17">
+      <c r="A63" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                              ..:||||||:...:||||||:..</t>
+        </is>
+      </c>
+      <c r="I63" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              Current       Type           Next reboot  </t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="12.75" customHeight="1" s="17">
+      <c r="A64" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                             C i s c o  S y s t e m s</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="inlineStr">
+        <is>
+          <t>------------------------------------------------------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="12.75" customHeight="1" s="17">
+      <c r="A65" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ROUTER: CISCO C1111</t>
+        </is>
+      </c>
+      <c r="I65" s="16" t="inlineStr">
+        <is>
+          <t>appxk9           None             None             None</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="12.75" customHeight="1" s="17">
+      <c r="A66" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            CLIENTE: DIRECCION DE BIBLIOTECAS ARCHIVOS Y MUSEOS</t>
+        </is>
+      </c>
+      <c r="I66" s="16" t="inlineStr">
+        <is>
+          <t>securityk9       None             None             None</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="12.75" customHeight="1" s="17">
+      <c r="A67" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            DIRECCION: Sgto Aldea 1026, Lampa, RegiC3n Metropolitana - CC1322, Lampa-Centro Cultural</t>
+        </is>
+      </c>
+      <c r="I67" s="16" t="inlineStr">
+        <is>
+          <t>ipbase           ipbasek9         Permanent        ipbasek9</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="12.75" customHeight="1" s="17">
+      <c r="A68" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            CIUDAD/COMUNA: LAMPA</t>
+        </is>
+      </c>
+      <c r="I68" s="16" t="inlineStr"/>
+    </row>
+    <row r="69" ht="12.75" customHeight="1" s="17">
+      <c r="A69" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            COD.BIBLIOTECA:  CC1322</t>
+        </is>
+      </c>
+      <c r="I69" s="16" t="inlineStr">
+        <is>
+          <t>cisco ISR4221/K9 (1RU) processor with 1632707K/6147K bytes of memory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="12.75" customHeight="1" s="17">
+      <c r="A70" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            TIPO DE SERVICIO: ACCE MPLS</t>
+        </is>
+      </c>
+      <c r="I70" s="16" t="inlineStr">
+        <is>
+          <t>Processor board ID FJC2205D0HJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="12.75" customHeight="1" s="17">
+      <c r="A71" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            PE: PE5-METRO-CNT</t>
+        </is>
+      </c>
+      <c r="I71" s="16" t="inlineStr">
+        <is>
+          <t>2 Gigabit Ethernet interfaces</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="12.75" customHeight="1" s="17">
+      <c r="A72" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            NODO: S1-53-LAS-VERTIENTES-PCS</t>
+        </is>
+      </c>
+      <c r="I72" s="16" t="inlineStr">
+        <is>
+          <t>32768K bytes of non-volatile configuration memory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="12.75" customHeight="1" s="17">
+      <c r="A73" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            PUERTA NODO: interface GigabitEthernet0/0/4</t>
+        </is>
+      </c>
+      <c r="I73" s="16" t="inlineStr">
+        <is>
+          <t>4194304K bytes of physical memory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="12.75" customHeight="1" s="17">
+      <c r="A74" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            VRF 1: DIBAM</t>
+        </is>
+      </c>
+      <c r="I74" s="16" t="inlineStr">
+        <is>
+          <t>7086079K bytes of flash memory at bootflash:.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="12.75" customHeight="1" s="17">
+      <c r="A75" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            PUERTA PE: interface Bundle-Ether24.2534</t>
+        </is>
+      </c>
+      <c r="I75" s="16" t="inlineStr">
+        <is>
+          <t>0K bytes of WebUI ODM Files at webui:.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="12.75" customHeight="1" s="17">
+      <c r="A76" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            VRF 2: DIBAM_NOSAFE</t>
+        </is>
+      </c>
+      <c r="I76" s="16" t="inlineStr"/>
+    </row>
+    <row r="77" ht="12.75" customHeight="1" s="17">
+      <c r="A77" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            PUERTA PE: interface Bundle-Ether24.2536</t>
+        </is>
+      </c>
+      <c r="I77" s="16" t="inlineStr">
+        <is>
+          <t>Configuration register is 0x2102</t>
+        </is>
+      </c>
+    </row>
     <row r="78" ht="12.75" customHeight="1" s="17">
-      <c r="I78" t="inlineStr"/>
-    </row>
-    <row r="79" ht="12.75" customHeight="1" s="17"/>
-    <row r="80" ht="12.75" customHeight="1" s="17"/>
-    <row r="81" ht="12.75" customHeight="1" s="17"/>
-    <row r="82" ht="12.75" customHeight="1" s="17"/>
-    <row r="83" ht="12.75" customHeight="1" s="17"/>
-    <row r="84" ht="12.75" customHeight="1" s="17"/>
-    <row r="85" ht="12.75" customHeight="1" s="17"/>
-    <row r="86" ht="12.75" customHeight="1" s="17"/>
-    <row r="87" ht="12.75" customHeight="1" s="17"/>
-    <row r="88" ht="12.75" customHeight="1" s="17"/>
-    <row r="89" ht="12.75" customHeight="1" s="17"/>
-    <row r="90" ht="12.75" customHeight="1" s="17"/>
-    <row r="91" ht="12.75" customHeight="1" s="17"/>
-    <row r="92" ht="12.75" customHeight="1" s="17"/>
-    <row r="93" ht="12.75" customHeight="1" s="17"/>
-    <row r="94" ht="12.75" customHeight="1" s="17"/>
-    <row r="95" ht="12.75" customHeight="1" s="17"/>
-    <row r="96" ht="12.75" customHeight="1" s="17"/>
-    <row r="97" ht="12.75" customHeight="1" s="17"/>
-    <row r="98" ht="12.75" customHeight="1" s="17"/>
-    <row r="99" ht="12.75" customHeight="1" s="17"/>
-    <row r="100" ht="12.75" customHeight="1" s="17"/>
-    <row r="101" ht="12.75" customHeight="1" s="17"/>
-    <row r="102" ht="12.75" customHeight="1" s="17"/>
-    <row r="103" ht="12.75" customHeight="1" s="17"/>
-    <row r="104" ht="12.75" customHeight="1" s="17"/>
-    <row r="105" ht="12.75" customHeight="1" s="17"/>
-    <row r="106" ht="12.75" customHeight="1" s="17"/>
-    <row r="107" ht="12.75" customHeight="1" s="17"/>
+      <c r="A78" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            VRF 3: DIBAM_MUSEO</t>
+        </is>
+      </c>
+      <c r="I78" s="16" t="inlineStr"/>
+    </row>
+    <row r="79" ht="12.75" customHeight="1" s="17">
+      <c r="A79" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            PUERTA PE: interface Bundle-Ether24.2535</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="12.75" customHeight="1" s="17">
+      <c r="A80" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ITP: BBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="12.75" customHeight="1" s="17">
+      <c r="A81" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">           *****************************************************</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="12.75" customHeight="1" s="17">
+      <c r="A82" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">           *  OTT: 72102873024        -    C/S: 10000574056     *</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="12.75" customHeight="1" s="17">
+      <c r="A83" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">           *****************************************************</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="12.75" customHeight="1" s="17">
+      <c r="A84" s="16" t="inlineStr">
+        <is>
+          <t>^C</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="12.75" customHeight="1" s="17">
+      <c r="A85" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">banner motd ^CCCCCCCCCCC          </t>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="12.75" customHeight="1" s="17">
+      <c r="A86" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            **************************************************************</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="12.75" customHeight="1" s="17">
+      <c r="A87" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            *                       IMPORTANTE                           *</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="12.75" customHeight="1" s="17">
+      <c r="A88" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            *                                                            *</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" ht="12.75" customHeight="1" s="17">
+      <c r="A89" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            * Usted esta ingresando a un dispositivo administrado por    *</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" ht="12.75" customHeight="1" s="17">
+      <c r="A90" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            * Entel. Este servicio esta restringido solamente a usuarios *</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" ht="12.75" customHeight="1" s="17">
+      <c r="A91" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            * autorizados. Todas las actividades realizadas en este      *</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" ht="12.75" customHeight="1" s="17">
+      <c r="A92" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            * sistema se registran y son enviados al administrador del   *</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" ht="12.75" customHeight="1" s="17">
+      <c r="A93" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            * sistema (usuario, direccion IP, tiempo de sesion). Si no   *</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" ht="12.75" customHeight="1" s="17">
+      <c r="A94" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            * cuenta con derechos de administracion sobre este equipo    *</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" ht="12.75" customHeight="1" s="17">
+      <c r="A95" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            * se recomienda finalizar su sesion de acceso de inmediato   *</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" ht="12.75" customHeight="1" s="17">
+      <c r="A96" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            *                                                            *</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" ht="12.75" customHeight="1" s="17">
+      <c r="A97" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            **************************************************************</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="12.75" customHeight="1" s="17">
+      <c r="A98" s="16" t="inlineStr">
+        <is>
+          <t>^C</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" ht="12.75" customHeight="1" s="17">
+      <c r="A99" s="16" t="inlineStr">
+        <is>
+          <t>line con 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" ht="12.75" customHeight="1" s="17">
+      <c r="A100" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> transport input none</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" ht="12.75" customHeight="1" s="17">
+      <c r="A101" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> stopbits 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="102" ht="12.75" customHeight="1" s="17">
+      <c r="A102" s="16" t="inlineStr">
+        <is>
+          <t>line vty 0 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" ht="12.75" customHeight="1" s="17">
+      <c r="A103" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> password entel</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" ht="12.75" customHeight="1" s="17">
+      <c r="A104" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> login local</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" ht="12.75" customHeight="1" s="17">
+      <c r="A105" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> transport input ssh</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" ht="12.75" customHeight="1" s="17">
+      <c r="A106" s="16" t="inlineStr">
+        <is>
+          <t>no network-clock synchronization automatic</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" ht="12.75" customHeight="1" s="17">
+      <c r="A107" s="16" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="16" t="inlineStr"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
